--- a/Doc/G6-OS_Issues Report.xlsx
+++ b/Doc/G6-OS_Issues Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Library/CloudStorage/OneDrive-ĐạihọcFPT-FPTUniversity/TRN.FU/Materials/ZLabPrjs/Fall-2022_SWP391/Guide_Student/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Backup-Dev\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8DF2928E-B8A3-CC40-BE8B-0845366596B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF57A12-EF82-0746-9C3D-96A5D9A7D77C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67653D78-6CE5-42F2-9C37-450A1144C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15860" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues Report" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="85">
   <si>
     <t>Title</t>
   </si>
@@ -83,39 +83,12 @@
     <t>Integrate User Login screen with others</t>
   </si>
   <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/1</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/2</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/3</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/4</t>
-  </si>
-  <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/5</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>Task, 1_To Do</t>
-  </si>
-  <si>
-    <t>Task, 2_Doing</t>
-  </si>
-  <si>
-    <t>WP, 2_Doing</t>
-  </si>
-  <si>
-    <t>Task, 3_Done</t>
-  </si>
-  <si>
     <t>User Login</t>
   </si>
   <si>
@@ -134,38 +107,194 @@
     <t>Integrate the User Login screen with other screens</t>
   </si>
   <si>
-    <t>https://gitlab.com/kienpmp/demo/-/issues/6</t>
-  </si>
-  <si>
-    <t>Defect, 3_Done</t>
-  </si>
-  <si>
-    <t>Home Page</t>
-  </si>
-  <si>
-    <t>The link User Register is missed on the Mockup of the Home Page screen (SRS document)</t>
-  </si>
-  <si>
-    <t>No User Register link on Home Page screen</t>
-  </si>
-  <si>
-    <t>KienNT</t>
-  </si>
-  <si>
-    <t>iter2</t>
-  </si>
-  <si>
     <t>iter1</t>
   </si>
   <si>
-    <t>TuanTA</t>
+    <t>https://github.com/L1N6/Project-OnlineShop.git</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>This is the landing page of the online shop. It typically includes an overview of the shop's products or services, as well as links to various categories of products.</t>
+  </si>
+  <si>
+    <t>HieuTD</t>
+  </si>
+  <si>
+    <t>Write SDS for User Home Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Home Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Home Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Home Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Home Screen</t>
+  </si>
+  <si>
+    <t>ThanhDQ</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>This function provides customers with a way to get in touch with the shop owner or customer support team. It may include a contact form, email address, or phone number.</t>
+  </si>
+  <si>
+    <t>Contacting Screen</t>
+  </si>
+  <si>
+    <t>This screen provides detailed information about a specific product, including images, descriptions, and specifications.</t>
+  </si>
+  <si>
+    <t>Product Detail Screen</t>
+  </si>
+  <si>
+    <t>This is where customers can browse all of the products available for purchase on the online shop. It may include various filters and sorting options to help customers find the products they are looking for.</t>
+  </si>
+  <si>
+    <t>This is where customers can view the items they have added to their cart and proceed to checkout.</t>
+  </si>
+  <si>
+    <t>Shopping Cart</t>
+  </si>
+  <si>
+    <t>Shop Screen</t>
+  </si>
+  <si>
+    <t>This function enables customers to enter their shipping and payment information and complete their purchase.</t>
+  </si>
+  <si>
+    <t>Checkout Screen</t>
+  </si>
+  <si>
+    <t>Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>TungNT</t>
+  </si>
+  <si>
+    <t>TungTD</t>
+  </si>
+  <si>
+    <t>LinhTQ</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Contacting</t>
+  </si>
+  <si>
+    <t>Product Detail</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Write SDS for User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Write detailed functional specification for the User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Checkout Screen</t>
+  </si>
+  <si>
+    <t>Write SDS for User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Write detailed functional specification for the User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Shopping Cart Screen</t>
+  </si>
+  <si>
+    <t>Write SDS for User Shop Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Shop Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Shop Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Shop Screen</t>
+  </si>
+  <si>
+    <t>Write detailed functional specification for the User Shop Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Shop Screen</t>
+  </si>
+  <si>
+    <t>Write SDS for User Detail Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Detail Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Detail Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Detail Screen</t>
+  </si>
+  <si>
+    <t>Write detailed functional specification for the User Detail Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Detail Screen</t>
+  </si>
+  <si>
+    <t>Write SDS for User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Write SRS for User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Write Code for User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Code &amp; Unit test for the User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Write detailed functional specification for the User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Contacting Screen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,7 +323,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,29 +370,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,273 +707,1181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B9144B-93AC-0243-B48F-1FC49AC75151}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
-    <col min="7" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
-    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="27.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.796875" style="1"/>
+    <col min="7" max="8" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" style="1"/>
+    <col min="10" max="10" width="15.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="78">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="6">
-        <v>44665.204837962963</v>
+        <v>45001</v>
       </c>
       <c r="H2" s="6">
         <v>44669.697754629633</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.15">
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31.2">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="6">
-        <v>44665.206030092595</v>
+        <v>45001</v>
       </c>
       <c r="H3" s="6">
         <v>44669.697581018518</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.15">
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.8">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>38</v>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G4" s="6">
-        <v>44665.207708333335</v>
+        <v>45001</v>
       </c>
       <c r="H4" s="6">
         <v>44669.697546296295</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="31.2">
       <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>38</v>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="6">
-        <v>44665.208252314813</v>
+        <v>45001</v>
       </c>
       <c r="H5" s="6">
         <v>44669.697627314818</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28" x14ac:dyDescent="0.15">
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="31.2">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="7">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>38</v>
+      <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="6">
-        <v>44665.209236111114</v>
+        <v>45001</v>
       </c>
       <c r="H6" s="6">
         <v>44669.697650462964</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="62.4">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>44669.697581018518</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="46.8">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H8" s="6">
+        <v>44669.697546296295</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44669.697581018518</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="31.2">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44669.697627314818</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="62.4">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="46.8">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.2">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.2">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="46.8">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="46.8">
+      <c r="A16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="31.2">
+      <c r="A17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.2">
+      <c r="A18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="78">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="46.8">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="31.2">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="7">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="31.2">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="31.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="46.8">
+      <c r="A24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7">
         <v>23</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="D24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="31.2">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="31.2">
+      <c r="A26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="46.8">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="7">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="46.8">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="6">
-        <v>44665.209236111114</v>
-      </c>
-      <c r="H7" s="6">
-        <v>44669.697650462964</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="31.2">
+      <c r="A29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="31.2">
+      <c r="A30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="7">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="6">
+        <v>45001</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Doc/G6-OS_Issues Report.xlsx
+++ b/Doc/G6-OS_Issues Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Backup-Dev\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67653D78-6CE5-42F2-9C37-450A1144C849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EE9E68-0B5B-4A4C-81F9-54BFE001FC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F029D15-4B34-8B4D-AA03-001B4FC8F913}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Issue_During_Working" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="105">
   <si>
     <t>Title</t>
   </si>
@@ -288,6 +289,66 @@
   </si>
   <si>
     <t>Write detailed codde design (class diagram, class specifications, sequence diagram, SQL) for the User Contacting Screen</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Description Title</t>
+  </si>
+  <si>
+    <t>Issue Description</t>
+  </si>
+  <si>
+    <t>Learning GitHub</t>
+  </si>
+  <si>
+    <t>Limitation of idea</t>
+  </si>
+  <si>
+    <t>New knowledge</t>
+  </si>
+  <si>
+    <t>Not matching workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub is a web-based platform used for version control and collaboration on software development projects. Learning GitHub involves understanding how to use the platform to manage and collaborate on code with other team members. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database design refers to the process of creating a structured representation of data and relationships within a database system. In the context of teamwork, this can involve designing a database schema that supports the needs of the team's project or work. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New knowledge refers to information that team members acquire as they work together on a project. This can come from a variety of sources such as research, training, or collaboration with others. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitation of idea refers to the challenges or constraints that may arise when trying to implement a particular project or idea. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not matching workflow refers to situations where team members have different ways of working or different expectations about how a project should be completed. </t>
+  </si>
+  <si>
+    <t>Database have to changed because of difference team members's idea</t>
+  </si>
+  <si>
+    <t>Learning have to changed because of difference team members's idea. Conflict when merging code of members. Member didn't remember the flow merging.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All member must learning new things to make project more quality. So bug </t>
+  </si>
+  <si>
+    <t>Software development model</t>
+  </si>
+  <si>
+    <t>Software development includes diverse tasks such as implementing new features, analyzing requirements, and fixing bugs. Being an expert in those tasks requires a certain set of skills, knowledge, and experience.</t>
+  </si>
+  <si>
+    <t>All team members disagree on how to code as well as how to implement each part of the project. Therefore, some times the logic is not strict.</t>
+  </si>
+  <si>
+    <t>Choose wrong model to develop project.</t>
+  </si>
+  <si>
+    <t>Since this is the first time working on a complete project, the team members have no experience in implementing ideas.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -392,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,9 +773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B9144B-93AC-0243-B48F-1FC49AC75151}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
@@ -1884,4 +1948,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1EE392-7C87-4975-94D5-CE4611171602}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
+    <col min="2" max="2" width="45.796875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="93.6">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="78">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="62.4">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="62.4">
+      <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="78">
+      <c r="A7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>